--- a/output/lnUSDummyModelTripleInteraction.xlsx
+++ b/output/lnUSDummyModelTripleInteraction.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{27B97138-4265-4841-8533-A8E92516317C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E6191-1E40-428F-B7AC-B4798F7C63F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="lnUSDummyModelTripleInteraction" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="277">
   <si>
     <t>est1</t>
   </si>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -994,7 +994,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1174,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1335,11 +1341,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4361,16 +4371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4397,16 +4407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2343150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4730,10 +4740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -5890,11 +5900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5983,35 +5993,35 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>-5.0372399999999998E-2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>-4.5249699999999997E-2</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>-8.8754299999999994E-2</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6037,11 +6047,11 @@
         <v>-2.63188E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>-9.53962E-2</v>
       </c>
     </row>
@@ -6053,11 +6063,11 @@
         <v>-2.8406600000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>1.6437400000000001E-2</v>
       </c>
     </row>
@@ -6077,11 +6087,11 @@
         <v>0.19898009999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>-3.3804500000000001E-2</v>
       </c>
     </row>

--- a/output/lnUSDummyModelTripleInteraction.xlsx
+++ b/output/lnUSDummyModelTripleInteraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E6191-1E40-428F-B7AC-B4798F7C63F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C60BB-214F-44A7-B0E0-4FBEDA8A1E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="277">
   <si>
     <t>est1</t>
   </si>
@@ -4371,16 +4371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1638301</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4408,15 +4408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4743,7 +4743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -5903,7 +5903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/output/lnUSDummyModelTripleInteraction.xlsx
+++ b/output/lnUSDummyModelTripleInteraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C60BB-214F-44A7-B0E0-4FBEDA8A1E6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0E31AE-757B-4876-8AE1-27D67C346CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4371,16 +4371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1638301</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4407,16 +4407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1838325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
